--- a/data/trans_bre/P05A_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P05A_R-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.346549406209725</v>
+        <v>-1.843732155824233</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.300209631643763</v>
+        <v>-3.554174161221081</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.637564867284746</v>
+        <v>-1.599285989036359</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.039455803209384</v>
+        <v>-3.861958854476592</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.03574005354573336</v>
+        <v>-0.04776418120794242</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.08710312258881718</v>
+        <v>-0.09309165400382237</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.04634977125484492</v>
+        <v>-0.04425092726248445</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1228396487311792</v>
+        <v>-0.1261889831041241</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.502299662275279</v>
+        <v>8.854883579197679</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.266917581370062</v>
+        <v>5.408198103179291</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.420387043314749</v>
+        <v>6.004750844551433</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.384272099402497</v>
+        <v>7.319485460570392</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2716192474348209</v>
+        <v>0.2814051373643411</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1534642019368784</v>
+        <v>0.1602181378315416</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2056435703056072</v>
+        <v>0.1912291152999853</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2929878557724304</v>
+        <v>0.2830083785116339</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.118007336721743</v>
+        <v>-1.736511876136917</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.162278492035001</v>
+        <v>-5.081124182763367</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.235116400876629</v>
+        <v>-1.975975479611048</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.035923039818992</v>
+        <v>-0.8679196263499618</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03499661766870452</v>
+        <v>-0.05278852256256415</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1060469495985137</v>
+        <v>-0.123205201547967</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.05838020659547558</v>
+        <v>-0.05299082139874958</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06572367388346813</v>
+        <v>-0.04971654371439042</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.060151792399563</v>
+        <v>7.091358736807217</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.275520179088275</v>
+        <v>4.325152278303349</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.006250011760621</v>
+        <v>6.962689713260117</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.791342901961761</v>
+        <v>5.676447269630761</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2465371959890326</v>
+        <v>0.2462955047992661</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1179374000653383</v>
+        <v>0.1212863273270525</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2047296453235515</v>
+        <v>0.201985839001314</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4638403360127144</v>
+        <v>0.4717957265959691</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.495299394571799</v>
+        <v>2.27969526446269</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.362996096248153</v>
+        <v>-5.312176024116575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.759194797274497</v>
+        <v>-6.81290448442636</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.551911566150382</v>
+        <v>-1.069375378914096</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1015234399783201</v>
+        <v>0.0894255579904641</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1177979629151135</v>
+        <v>-0.115713125583865</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1869998156624072</v>
+        <v>-0.1909101470090978</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.08650347383030048</v>
+        <v>-0.07329756881409014</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.703274457494667</v>
+        <v>10.03462573295884</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.253689506619375</v>
+        <v>4.803539892421973</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.573075995670099</v>
+        <v>2.088344607546621</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.504568934040358</v>
+        <v>5.564751260367228</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4326461556383207</v>
+        <v>0.4496760536012657</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1053421070968356</v>
+        <v>0.1196466764268657</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08930842795994809</v>
+        <v>0.069268964537665</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4359728245505944</v>
+        <v>0.4202812392455428</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.100920603686898</v>
+        <v>-3.266293204175698</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.670669558713672</v>
+        <v>-5.142401037578557</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-8.533581414047685</v>
+        <v>-9.516672125509581</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.286210901181107</v>
+        <v>-3.993146399053127</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.08375348831997056</v>
+        <v>-0.09174585315788628</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1227352767106372</v>
+        <v>-0.1141463544983591</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1783875488856914</v>
+        <v>-0.1936328514721746</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.140570860367051</v>
+        <v>-0.1603734977351471</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.22831887152804</v>
+        <v>10.53961211002336</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.002387706068967</v>
+        <v>8.426967552174537</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.138958851729019</v>
+        <v>4.297629579905469</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.043772268463483</v>
+        <v>4.029122937982797</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3833544674024309</v>
+        <v>0.3380621210223568</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1978656046635585</v>
+        <v>0.2051897571769875</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09422416865610728</v>
+        <v>0.1012082538481632</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2044161770908808</v>
+        <v>0.2052306229363031</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.564309547545494</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.890942002120397</v>
+        <v>1.890942002120391</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.164348171857312</v>
@@ -1049,7 +1049,7 @@
         <v>0.01566684028039589</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1017832611894639</v>
+        <v>0.1017832611894636</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.610046984761297</v>
+        <v>2.753864118055138</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.221522679369714</v>
+        <v>-2.196653158199231</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.835248069172708</v>
+        <v>-1.675523728759883</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03000936912754698</v>
+        <v>-0.06649706669723515</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08705590070458082</v>
+        <v>0.09076562240369988</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.05421827657448557</v>
+        <v>-0.05413669641559113</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.04879171904451701</v>
+        <v>-0.04541723334945819</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.001805636623245996</v>
+        <v>-0.003937151244832324</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.104083356126975</v>
+        <v>7.38317754875097</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.665911221401627</v>
+        <v>2.354117841469173</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.148786154547937</v>
+        <v>2.9596588694445</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.814805615357509</v>
+        <v>3.65991978566785</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2519084362005013</v>
+        <v>0.2631121084561323</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06875621290988439</v>
+        <v>0.06122412584948304</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09039728770216002</v>
+        <v>0.08596780200580498</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2192417616399203</v>
+        <v>0.2068054449105061</v>
       </c>
     </row>
     <row r="19">
